--- a/ajout-RC/ig/all-profiles.xlsx
+++ b/ajout-RC/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5642" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5643" uniqueCount="481">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:16:53+00:00</t>
+    <t>2025-12-16T07:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -410,18 +410,12 @@
     <t>nde-eventdeclaration</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/StructureDefinition/NdE_EventDeclarationNdE</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/nde-eventdeclaration</t>
   </si>
   <si>
     <t>NdE_EventDeclarationNdE</t>
   </si>
   <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>2021-12-01</t>
-  </si>
-  <si>
     <t>EmissionEvenement contient les informations nécessaires pour transmettre un évènement à un système d’information ou à un composant d’un système d’information (gestionnaire d’évènements). Un évènement peut être un dépôt de documents, une sortie d’hôpital, etc.</t>
   </si>
   <si>
@@ -444,7 +438,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}event-subject:L’un des attributs subject ou about doit être présent {count(subject) = 1 xor count(about) = 1}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}event-subject:L’un des attributs subject ou about doit être présent {subject.exists() xor about.exists()}</t>
   </si>
   <si>
     <t>CommunicationRequest.id</t>
@@ -1047,7 +1041,7 @@
     <t>nde-notificationrequest</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/StructureDefinition/NdE_NotificationRequestNdE</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/nde-notificationrequest</t>
   </si>
   <si>
     <t>NdE_NotificationRequestNdE</t>
@@ -1075,7 +1069,7 @@
     <t>Le type d’évènement</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://esante.gouv.fr/ci-sis/fhir/StructureDefinition/NdE_SubscriptionNdE)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/nde-subscription)
 </t>
   </si>
   <si>
@@ -1188,7 +1182,7 @@
     <t>nde-subscription</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/StructureDefinition/NdE_SubscriptionNdE</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/nde-subscription</t>
   </si>
   <si>
     <t>NdE_SubscriptionNdE</t>
@@ -1667,7 +1661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B261"/>
+  <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2358,48 +2352,48 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="1">
+      <c r="A89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B89" t="s" s="1">
+      <c r="B90" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>127</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>7</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>129</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>129</v>
@@ -2407,1289 +2401,1295 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B96" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>132</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B103" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>131</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>36</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B110" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="s" s="1">
+    <row r="111">
+      <c r="A111" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B110" t="s" s="1">
+      <c r="B111" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>7</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>329</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B115" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>327</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>330</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B124" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>329</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>36</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B131" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="s" s="1">
+    <row r="132">
+      <c r="A132" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B131" t="s" s="1">
+      <c r="B132" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>371</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>7</v>
+        <v>370</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>373</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B136" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>371</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B138" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>374</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B144" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>372</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>375</v>
+        <v>132</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>36</v>
+        <v>374</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B152" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="s" s="1">
+    <row r="153">
+      <c r="A153" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B152" t="s" s="1">
+      <c r="B153" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>465</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>7</v>
+        <v>464</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>467</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B157" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>465</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B158" t="s" s="2">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B159" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B160" t="s" s="2">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>346</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B165" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>344</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B167" t="s" s="2">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B173" t="s" s="2">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s" s="1">
+      <c r="B174" t="s" s="2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B174" t="s" s="1">
+      <c r="B175" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B175" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>7</v>
+        <v>468</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>471</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>400</v>
+        <v>469</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>13</v>
+        <v>398</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B181" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B182" t="s" s="2">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>402</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B187" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>400</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B189" t="s" s="2">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B196" t="s" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="s" s="1">
+    <row r="197">
+      <c r="A197" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B196" t="s" s="1">
+      <c r="B197" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B197" t="s" s="2">
-        <v>472</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>7</v>
+        <v>471</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>474</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>404</v>
+        <v>472</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>13</v>
+        <v>402</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B203" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B204" t="s" s="2">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>406</v>
+        <v>22</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B209" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>404</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B211" t="s" s="2">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B218" t="s" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="s" s="1">
+    <row r="219">
+      <c r="A219" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B218" t="s" s="1">
+      <c r="B219" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B219" t="s" s="2">
-        <v>476</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>7</v>
+        <v>475</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>478</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>411</v>
+        <v>476</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>13</v>
+        <v>409</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B225" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B226" t="s" s="2">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>122</v>
+        <v>22</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B231" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>122</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B232" s="2"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B233" t="s" s="2">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B239" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B240" t="s" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="s" s="1">
+    <row r="241">
+      <c r="A241" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B240" t="s" s="1">
+      <c r="B241" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B241" t="s" s="2">
-        <v>480</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>7</v>
+        <v>479</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>482</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>397</v>
+        <v>480</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>13</v>
+        <v>395</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B247" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B247" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B248" t="s" s="2">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B248" s="2"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>398</v>
+        <v>22</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B253" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B253" t="s" s="2">
+        <v>396</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B254" s="2"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B255" t="s" s="2">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B255" s="2"/>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B261" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B261" t="s" s="2">
+      <c r="B262" t="s" s="2">
         <v>123</v>
       </c>
     </row>
@@ -5930,10 +5930,10 @@
         <v>127</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -5959,10 +5959,10 @@
         <v>80</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -6013,7 +6013,7 @@
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
@@ -6025,7 +6025,7 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23">
@@ -6033,10 +6033,10 @@
         <v>127</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -6056,19 +6056,19 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
@@ -6118,7 +6118,7 @@
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
@@ -6138,10 +6138,10 @@
         <v>127</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -6161,16 +6161,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -6221,7 +6221,7 @@
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
@@ -6241,10 +6241,10 @@
         <v>127</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -6261,22 +6261,22 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>97</v>
       </c>
       <c r="M25" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
@@ -6326,7 +6326,7 @@
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
@@ -6346,10 +6346,10 @@
         <v>127</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -6372,16 +6372,16 @@
         <v>77</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
@@ -6407,31 +6407,31 @@
         <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AA26" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AB26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG26" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
@@ -6451,14 +6451,14 @@
         <v>127</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
@@ -6477,16 +6477,16 @@
         <v>77</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
@@ -6536,7 +6536,7 @@
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
@@ -6556,14 +6556,14 @@
         <v>127</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
@@ -6582,19 +6582,19 @@
         <v>77</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="P28" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="Q28" t="s" s="2">
         <v>77</v>
@@ -6643,7 +6643,7 @@
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
@@ -6663,10 +6663,10 @@
         <v>127</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -6674,7 +6674,7 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -6744,7 +6744,7 @@
         <v>94</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
@@ -6764,13 +6764,13 @@
         <v>127</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E30" t="s" s="2">
         <v>77</v>
@@ -6792,7 +6792,7 @@
         <v>77</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>121</v>
@@ -6801,7 +6801,7 @@
         <v>122</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
@@ -6851,7 +6851,7 @@
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
@@ -6871,13 +6871,13 @@
         <v>127</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E31" t="s" s="2">
         <v>77</v>
@@ -6899,7 +6899,7 @@
         <v>77</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>116</v>
@@ -6908,7 +6908,7 @@
         <v>117</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
@@ -6958,7 +6958,7 @@
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
@@ -6978,14 +6978,14 @@
         <v>127</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" t="s" s="2">
@@ -6998,7 +6998,7 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>77</v>
@@ -7007,16 +7007,16 @@
         <v>90</v>
       </c>
       <c r="M32" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="P32" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="P32" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="Q32" t="s" s="2">
         <v>77</v>
@@ -7065,7 +7065,7 @@
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
@@ -7085,10 +7085,10 @@
         <v>127</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -7108,22 +7108,22 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="P33" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="P33" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="Q33" t="s" s="2">
         <v>77</v>
@@ -7172,7 +7172,7 @@
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
@@ -7192,14 +7192,14 @@
         <v>127</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
@@ -7215,20 +7215,20 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q34" t="s" s="2">
         <v>77</v>
@@ -7277,7 +7277,7 @@
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
@@ -7297,14 +7297,14 @@
         <v>127</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
@@ -7320,22 +7320,22 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="P35" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="Q35" t="s" s="2">
         <v>77</v>
@@ -7384,7 +7384,7 @@
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
@@ -7404,14 +7404,14 @@
         <v>127</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
@@ -7427,19 +7427,19 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M36" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O36" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
@@ -7489,7 +7489,7 @@
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
@@ -7509,10 +7509,10 @@
         <v>127</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -7529,19 +7529,19 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -7571,10 +7571,10 @@
         <v>125</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AB37" t="s" s="2">
         <v>77</v>
@@ -7592,7 +7592,7 @@
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>84</v>
@@ -7612,14 +7612,14 @@
         <v>127</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s" s="2">
@@ -7641,13 +7641,13 @@
         <v>124</v>
       </c>
       <c r="M38" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
@@ -7673,10 +7673,10 @@
         <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -7697,7 +7697,7 @@
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
@@ -7717,10 +7717,10 @@
         <v>127</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -7746,13 +7746,13 @@
         <v>124</v>
       </c>
       <c r="M39" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
@@ -7778,31 +7778,31 @@
         <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG39" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
@@ -7822,10 +7822,10 @@
         <v>127</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -7845,16 +7845,16 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -7862,7 +7862,7 @@
         <v>77</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>77</v>
@@ -7886,10 +7886,10 @@
         <v>125</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AB40" t="s" s="2">
         <v>77</v>
@@ -7907,7 +7907,7 @@
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
@@ -7927,14 +7927,14 @@
         <v>127</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" t="s" s="2">
@@ -7947,29 +7947,29 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -8014,7 +8014,7 @@
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
@@ -8034,10 +8034,10 @@
         <v>127</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -8063,10 +8063,10 @@
         <v>124</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -8093,13 +8093,13 @@
         <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AB42" t="s" s="2">
         <v>77</v>
@@ -8117,7 +8117,7 @@
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
@@ -8137,14 +8137,14 @@
         <v>127</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
@@ -8163,13 +8163,13 @@
         <v>77</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -8220,7 +8220,7 @@
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
@@ -8240,10 +8240,10 @@
         <v>127</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -8266,16 +8266,16 @@
         <v>77</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M44" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
@@ -8325,7 +8325,7 @@
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>78</v>
@@ -8345,10 +8345,10 @@
         <v>127</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -8368,19 +8368,19 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
@@ -8430,7 +8430,7 @@
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
@@ -8450,10 +8450,10 @@
         <v>127</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -8476,13 +8476,13 @@
         <v>77</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -8533,7 +8533,7 @@
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
@@ -8553,10 +8553,10 @@
         <v>127</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -8656,14 +8656,14 @@
         <v>127</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
@@ -8685,13 +8685,13 @@
         <v>90</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
@@ -8761,14 +8761,14 @@
         <v>127</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
@@ -8781,25 +8781,25 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>90</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>77</v>
@@ -8848,7 +8848,7 @@
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
@@ -8868,10 +8868,10 @@
         <v>127</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -8894,13 +8894,13 @@
         <v>77</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -8951,7 +8951,7 @@
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>84</v>
@@ -8971,14 +8971,14 @@
         <v>127</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
@@ -8994,16 +8994,16 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -9054,7 +9054,7 @@
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
@@ -9074,14 +9074,14 @@
         <v>127</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
@@ -9097,19 +9097,19 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>112</v>
       </c>
       <c r="M52" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O52" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
@@ -9159,7 +9159,7 @@
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
@@ -9179,14 +9179,14 @@
         <v>127</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" t="s" s="2">
@@ -9202,20 +9202,20 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q53" t="s" s="2">
         <v>77</v>
@@ -9264,7 +9264,7 @@
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
@@ -9284,10 +9284,10 @@
         <v>127</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -9310,13 +9310,13 @@
         <v>77</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -9367,7 +9367,7 @@
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
@@ -9387,10 +9387,10 @@
         <v>127</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -9410,16 +9410,16 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -9470,7 +9470,7 @@
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
@@ -9490,10 +9490,10 @@
         <v>127</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -9513,19 +9513,19 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>124</v>
       </c>
       <c r="M56" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
@@ -9551,13 +9551,13 @@
         <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AB56" t="s" s="2">
         <v>77</v>
@@ -9575,7 +9575,7 @@
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>78</v>
@@ -9595,10 +9595,10 @@
         <v>127</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -9618,16 +9618,16 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -9678,7 +9678,7 @@
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
@@ -9698,10 +9698,10 @@
         <v>127</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -9724,13 +9724,13 @@
         <v>77</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -9781,7 +9781,7 @@
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
@@ -9798,13 +9798,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9830,10 +9830,10 @@
         <v>80</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -9884,7 +9884,7 @@
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
@@ -9896,18 +9896,18 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9927,19 +9927,19 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
@@ -9989,7 +9989,7 @@
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>78</v>
@@ -10006,13 +10006,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -10032,16 +10032,16 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -10092,7 +10092,7 @@
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
@@ -10109,13 +10109,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -10132,22 +10132,22 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>97</v>
       </c>
       <c r="M62" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O62" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
@@ -10197,7 +10197,7 @@
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
@@ -10214,13 +10214,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -10243,16 +10243,16 @@
         <v>77</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
@@ -10278,31 +10278,31 @@
         <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AA63" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Z63" t="s" s="2">
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG63" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>78</v>
@@ -10319,17 +10319,17 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
@@ -10348,16 +10348,16 @@
         <v>77</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
@@ -10407,7 +10407,7 @@
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>78</v>
@@ -10424,17 +10424,17 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
@@ -10453,19 +10453,19 @@
         <v>77</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="P65" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="Q65" t="s" s="2">
         <v>77</v>
@@ -10514,7 +10514,7 @@
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>78</v>
@@ -10531,13 +10531,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10615,7 +10615,7 @@
         <v>94</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
@@ -10632,16 +10632,16 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E67" t="s" s="2">
         <v>77</v>
@@ -10663,13 +10663,13 @@
         <v>77</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -10720,7 +10720,7 @@
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
@@ -10737,16 +10737,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E68" t="s" s="2">
         <v>77</v>
@@ -10768,13 +10768,13 @@
         <v>77</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M68" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -10825,7 +10825,7 @@
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
@@ -10842,16 +10842,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E69" t="s" s="2">
         <v>77</v>
@@ -10873,13 +10873,13 @@
         <v>77</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -10930,7 +10930,7 @@
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
@@ -10947,17 +10947,17 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" t="s" s="2">
@@ -10970,7 +10970,7 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>77</v>
@@ -10979,16 +10979,16 @@
         <v>90</v>
       </c>
       <c r="M70" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O70" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="P70" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="Q70" t="s" s="2">
         <v>77</v>
@@ -11037,7 +11037,7 @@
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
@@ -11054,13 +11054,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -11080,22 +11080,22 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N71" t="s" s="2">
+      <c r="P71" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="P71" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="Q71" t="s" s="2">
         <v>77</v>
@@ -11144,7 +11144,7 @@
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
@@ -11161,17 +11161,17 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" t="s" s="2">
@@ -11187,20 +11187,20 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q72" t="s" s="2">
         <v>77</v>
@@ -11249,7 +11249,7 @@
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
@@ -11266,17 +11266,17 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
@@ -11292,22 +11292,22 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="P73" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="Q73" t="s" s="2">
         <v>77</v>
@@ -11356,7 +11356,7 @@
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
@@ -11373,17 +11373,17 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
@@ -11399,19 +11399,19 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M74" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O74" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
@@ -11461,7 +11461,7 @@
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
@@ -11478,13 +11478,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -11501,19 +11501,19 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -11543,10 +11543,10 @@
         <v>125</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AB75" t="s" s="2">
         <v>77</v>
@@ -11564,7 +11564,7 @@
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>84</v>
@@ -11581,17 +11581,17 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" t="s" s="2">
@@ -11613,13 +11613,13 @@
         <v>124</v>
       </c>
       <c r="M76" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O76" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
@@ -11645,10 +11645,10 @@
         <v>77</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>77</v>
@@ -11669,7 +11669,7 @@
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>78</v>
@@ -11686,13 +11686,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11718,13 +11718,13 @@
         <v>124</v>
       </c>
       <c r="M77" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O77" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -11750,31 +11750,31 @@
         <v>77</v>
       </c>
       <c r="Y77" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>78</v>
@@ -11791,13 +11791,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11817,16 +11817,16 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -11834,7 +11834,7 @@
         <v>77</v>
       </c>
       <c r="R78" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -11858,10 +11858,10 @@
         <v>125</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AB78" t="s" s="2">
         <v>77</v>
@@ -11879,7 +11879,7 @@
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>78</v>
@@ -11896,17 +11896,17 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" t="s" s="2">
@@ -11919,29 +11919,29 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -11986,7 +11986,7 @@
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>78</v>
@@ -12003,13 +12003,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -12035,10 +12035,10 @@
         <v>124</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -12065,13 +12065,13 @@
         <v>77</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AB80" t="s" s="2">
         <v>77</v>
@@ -12089,7 +12089,7 @@
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>78</v>
@@ -12106,17 +12106,17 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" t="s" s="2">
@@ -12135,13 +12135,13 @@
         <v>77</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -12192,7 +12192,7 @@
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>78</v>
@@ -12209,13 +12209,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -12238,16 +12238,16 @@
         <v>77</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M82" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O82" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
@@ -12297,7 +12297,7 @@
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>78</v>
@@ -12314,13 +12314,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -12340,19 +12340,19 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
@@ -12402,7 +12402,7 @@
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>78</v>
@@ -12419,13 +12419,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -12448,13 +12448,13 @@
         <v>77</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -12505,7 +12505,7 @@
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>78</v>
@@ -12522,13 +12522,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -12625,17 +12625,17 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
@@ -12657,13 +12657,13 @@
         <v>90</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -12730,17 +12730,17 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" t="s" s="2">
@@ -12753,25 +12753,25 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>90</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P87" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>77</v>
@@ -12820,7 +12820,7 @@
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
@@ -12837,13 +12837,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12866,13 +12866,13 @@
         <v>77</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -12923,7 +12923,7 @@
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>84</v>
@@ -12940,17 +12940,17 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
@@ -12966,16 +12966,16 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -13026,7 +13026,7 @@
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
@@ -13043,17 +13043,17 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
@@ -13069,16 +13069,16 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>112</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -13129,7 +13129,7 @@
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
@@ -13146,17 +13146,17 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
@@ -13172,16 +13172,16 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N91" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -13232,7 +13232,7 @@
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>78</v>
@@ -13249,13 +13249,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -13278,13 +13278,13 @@
         <v>77</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -13335,7 +13335,7 @@
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>78</v>
@@ -13352,13 +13352,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13455,13 +13455,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13558,16 +13558,16 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C95" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="D95" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="D95" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="E95" t="s" s="2">
         <v>77</v>
@@ -13589,13 +13589,13 @@
         <v>77</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>32</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -13663,13 +13663,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13689,19 +13689,19 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>85</v>
       </c>
       <c r="M96" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O96" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
@@ -13751,7 +13751,7 @@
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>78</v>
@@ -13760,7 +13760,7 @@
         <v>84</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>105</v>
@@ -13768,13 +13768,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13794,19 +13794,19 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>97</v>
       </c>
       <c r="M97" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O97" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
@@ -13832,31 +13832,31 @@
         <v>77</v>
       </c>
       <c r="Y97" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AA97" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="Z97" t="s" s="2">
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG97" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>78</v>
@@ -13873,13 +13873,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13899,19 +13899,19 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M98" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O98" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
@@ -13961,7 +13961,7 @@
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>78</v>
@@ -13978,13 +13978,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -14004,19 +14004,19 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>85</v>
       </c>
       <c r="M99" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O99" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
@@ -14066,7 +14066,7 @@
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>78</v>
@@ -14083,13 +14083,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -14109,16 +14109,16 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N100" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -14169,7 +14169,7 @@
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>78</v>
@@ -14186,13 +14186,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -14212,19 +14212,19 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>124</v>
       </c>
       <c r="M101" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O101" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -14250,13 +14250,13 @@
         <v>77</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AB101" t="s" s="2">
         <v>77</v>
@@ -14274,7 +14274,7 @@
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>78</v>
@@ -14291,13 +14291,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14317,16 +14317,16 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -14377,7 +14377,7 @@
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>78</v>
@@ -14394,13 +14394,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14423,13 +14423,13 @@
         <v>77</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -14480,7 +14480,7 @@
         <v>77</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>78</v>
@@ -14497,17 +14497,17 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" t="s" s="2">
@@ -14529,10 +14529,10 @@
         <v>80</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -14583,7 +14583,7 @@
         <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>78</v>
@@ -14595,18 +14595,18 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14626,19 +14626,19 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
@@ -14688,7 +14688,7 @@
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>78</v>
@@ -14705,13 +14705,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -14731,16 +14731,16 @@
         <v>77</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N106" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -14791,7 +14791,7 @@
         <v>77</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>78</v>
@@ -14808,13 +14808,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -14831,22 +14831,22 @@
         <v>77</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L107" t="s" s="2">
         <v>97</v>
       </c>
       <c r="M107" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O107" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
@@ -14896,7 +14896,7 @@
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>78</v>
@@ -14913,13 +14913,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14942,16 +14942,16 @@
         <v>77</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N108" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="O108" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
@@ -14977,31 +14977,31 @@
         <v>77</v>
       </c>
       <c r="Y108" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AA108" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Z108" t="s" s="2">
+      <c r="AB108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG108" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>78</v>
@@ -15018,17 +15018,17 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" t="s" s="2">
@@ -15047,16 +15047,16 @@
         <v>77</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N109" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
@@ -15106,7 +15106,7 @@
         <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>78</v>
@@ -15123,17 +15123,17 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" t="s" s="2">
@@ -15152,19 +15152,19 @@
         <v>77</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N110" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="O110" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P110" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="P110" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="Q110" t="s" s="2">
         <v>77</v>
@@ -15213,7 +15213,7 @@
         <v>77</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>78</v>
@@ -15230,13 +15230,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -15244,7 +15244,7 @@
       </c>
       <c r="F111" s="2"/>
       <c r="G111" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>79</v>
@@ -15314,7 +15314,7 @@
         <v>94</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>78</v>
@@ -15331,16 +15331,16 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D112" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E112" t="s" s="2">
         <v>77</v>
@@ -15362,13 +15362,13 @@
         <v>77</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N112" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
@@ -15419,7 +15419,7 @@
         <v>77</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>78</v>
@@ -15436,16 +15436,16 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E113" t="s" s="2">
         <v>77</v>
@@ -15467,13 +15467,13 @@
         <v>77</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M113" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -15524,7 +15524,7 @@
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
@@ -15541,16 +15541,16 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D114" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E114" t="s" s="2">
         <v>77</v>
@@ -15572,13 +15572,13 @@
         <v>77</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M114" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N114" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
@@ -15629,7 +15629,7 @@
         <v>77</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>78</v>
@@ -15646,13 +15646,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>11</v>
@@ -15677,7 +15677,7 @@
         <v>77</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>11</v>
@@ -15734,7 +15734,7 @@
         <v>77</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>78</v>
@@ -15751,16 +15751,16 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E116" t="s" s="2">
         <v>77</v>
@@ -15782,7 +15782,7 @@
         <v>77</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>121</v>
@@ -15839,7 +15839,7 @@
         <v>77</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>78</v>
@@ -15856,16 +15856,16 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D117" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E117" t="s" s="2">
         <v>77</v>
@@ -15887,10 +15887,10 @@
         <v>77</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>122</v>
@@ -15944,7 +15944,7 @@
         <v>77</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>78</v>
@@ -15961,17 +15961,17 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" t="s" s="2">
@@ -15984,7 +15984,7 @@
         <v>77</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>77</v>
@@ -15993,16 +15993,16 @@
         <v>90</v>
       </c>
       <c r="M118" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O118" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N118" t="s" s="2">
+      <c r="P118" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="P118" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="Q118" t="s" s="2">
         <v>77</v>
@@ -16051,7 +16051,7 @@
         <v>77</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>78</v>
@@ -16068,13 +16068,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -16091,22 +16091,22 @@
         <v>77</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M119" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O119" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P119" s="2"/>
       <c r="Q119" t="s" s="2">
@@ -16135,10 +16135,10 @@
         <v>125</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AB119" t="s" s="2">
         <v>77</v>
@@ -16156,7 +16156,7 @@
         <v>77</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>84</v>
@@ -16173,13 +16173,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -16199,16 +16199,16 @@
         <v>77</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
@@ -16259,7 +16259,7 @@
         <v>77</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>78</v>
@@ -16276,13 +16276,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -16302,19 +16302,19 @@
         <v>77</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" t="s" s="2">
@@ -16364,7 +16364,7 @@
         <v>77</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>78</v>
@@ -16381,13 +16381,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16407,16 +16407,16 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>85</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
@@ -16467,7 +16467,7 @@
         <v>77</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>84</v>
@@ -16484,13 +16484,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16510,19 +16510,19 @@
         <v>77</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L123" t="s" s="2">
         <v>85</v>
       </c>
       <c r="M123" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O123" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" t="s" s="2">
@@ -16572,7 +16572,7 @@
         <v>77</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>84</v>
@@ -16589,13 +16589,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16615,16 +16615,16 @@
         <v>77</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L124" t="s" s="2">
         <v>85</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
@@ -16675,7 +16675,7 @@
         <v>77</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>78</v>
@@ -16692,13 +16692,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16718,16 +16718,16 @@
         <v>77</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -16778,7 +16778,7 @@
         <v>77</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>84</v>
@@ -16795,13 +16795,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -16898,17 +16898,17 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" t="s" s="2">
@@ -16930,13 +16930,13 @@
         <v>90</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
@@ -17003,17 +17003,17 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" t="s" s="2">
@@ -17026,25 +17026,25 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L128" t="s" s="2">
         <v>90</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P128" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q128" t="s" s="2">
         <v>77</v>
@@ -17093,7 +17093,7 @@
         <v>77</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>78</v>
@@ -17110,13 +17110,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17136,16 +17136,16 @@
         <v>77</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
@@ -17175,10 +17175,10 @@
         <v>125</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AA129" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AB129" t="s" s="2">
         <v>77</v>
@@ -17196,7 +17196,7 @@
         <v>77</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>84</v>
@@ -17213,13 +17213,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -17239,19 +17239,19 @@
         <v>77</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N130" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" t="s" s="2">
@@ -17301,7 +17301,7 @@
         <v>77</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>78</v>
@@ -17318,13 +17318,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17344,19 +17344,19 @@
         <v>77</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M131" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O131" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" t="s" s="2">
@@ -17385,10 +17385,10 @@
         <v>125</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AB131" t="s" s="2">
         <v>77</v>
@@ -17406,7 +17406,7 @@
         <v>77</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>78</v>
@@ -17423,13 +17423,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17449,19 +17449,19 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>85</v>
       </c>
       <c r="M132" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="O132" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" t="s" s="2">
@@ -17511,7 +17511,7 @@
         <v>77</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>78</v>
@@ -17528,7 +17528,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>32</v>
@@ -17563,7 +17563,7 @@
         <v>32</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -17631,7 +17631,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>83</v>
@@ -17734,7 +17734,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>89</v>
@@ -17837,7 +17837,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>96</v>
@@ -17883,7 +17883,7 @@
       </c>
       <c r="R136" s="2"/>
       <c r="S136" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="T136" t="s" s="2">
         <v>77</v>
@@ -17942,7 +17942,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>101</v>
@@ -17971,7 +17971,7 @@
         <v>77</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M137" t="s" s="2">
         <v>103</v>
@@ -18045,7 +18045,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>32</v>
@@ -18077,10 +18077,10 @@
         <v>80</v>
       </c>
       <c r="M138" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N138" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
@@ -18148,7 +18148,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>83</v>
@@ -18251,7 +18251,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>89</v>
@@ -18354,7 +18354,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>96</v>
@@ -18400,7 +18400,7 @@
       </c>
       <c r="R141" s="2"/>
       <c r="S141" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="T141" t="s" s="2">
         <v>77</v>
@@ -18459,7 +18459,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>101</v>
@@ -18562,7 +18562,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>32</v>
@@ -18594,10 +18594,10 @@
         <v>80</v>
       </c>
       <c r="M143" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N143" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -18665,7 +18665,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>83</v>
@@ -18768,7 +18768,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>89</v>
@@ -18871,7 +18871,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>96</v>
@@ -18917,7 +18917,7 @@
       </c>
       <c r="R146" s="2"/>
       <c r="S146" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="T146" t="s" s="2">
         <v>77</v>
@@ -18976,7 +18976,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>101</v>
@@ -19005,7 +19005,7 @@
         <v>77</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M147" t="s" s="2">
         <v>103</v>
@@ -19079,7 +19079,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>32</v>
@@ -19111,7 +19111,7 @@
         <v>80</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N148" t="s" s="2">
         <v>122</v>
@@ -19182,7 +19182,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>83</v>
@@ -19285,7 +19285,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>89</v>
@@ -19388,7 +19388,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>96</v>
@@ -19434,7 +19434,7 @@
       </c>
       <c r="R151" s="2"/>
       <c r="S151" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>77</v>
@@ -19493,7 +19493,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>101</v>
@@ -19522,7 +19522,7 @@
         <v>77</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M152" t="s" s="2">
         <v>103</v>
@@ -19596,7 +19596,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>32</v>
@@ -19628,10 +19628,10 @@
         <v>80</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -19699,7 +19699,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>83</v>
@@ -19802,7 +19802,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>89</v>
@@ -19905,7 +19905,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>96</v>
@@ -19951,7 +19951,7 @@
       </c>
       <c r="R156" s="2"/>
       <c r="S156" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="T156" t="s" s="2">
         <v>77</v>
@@ -20010,7 +20010,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>101</v>

--- a/ajout-RC/ig/all-profiles.xlsx
+++ b/ajout-RC/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-16T07:50:40+00:00</t>
+    <t>2026-01-02T15:03:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/all-profiles.xlsx
+++ b/ajout-RC/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T15:03:02+00:00</t>
+    <t>2026-01-09T09:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/all-profiles.xlsx
+++ b/ajout-RC/ig/all-profiles.xlsx
@@ -30,13 +30,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/declarant</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/declarant</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T09:23:40+00:00</t>
+    <t>2026-01-15T15:19:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -345,7 +345,7 @@
     <t>event-emission-time</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/event-emission-time</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/event-emission-time</t>
   </si>
   <si>
     <t>NdE_EventEmissionTime</t>
@@ -367,7 +367,7 @@
     <t>event-time</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/event-time</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/event-time</t>
   </si>
   <si>
     <t>NdE_EventTime</t>
@@ -382,7 +382,7 @@
     <t>event-type</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/event-type</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/event-type</t>
   </si>
   <si>
     <t>NdE_EventType</t>
@@ -410,7 +410,7 @@
     <t>nde-eventdeclaration</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/nde-eventdeclaration</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/nde-eventdeclaration</t>
   </si>
   <si>
     <t>NdE_EventDeclarationNdE</t>
@@ -586,7 +586,7 @@
     <t>EventType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/event-type}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/event-type}
 </t>
   </si>
   <si>
@@ -599,7 +599,7 @@
     <t>EventTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/event-time}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/event-time}
 </t>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
     <t>nde-notificationrequest</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/nde-notificationrequest</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/nde-notificationrequest</t>
   </si>
   <si>
     <t>NdE_NotificationRequestNdE</t>
@@ -1062,14 +1062,14 @@
     <t>EventEmissionTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/event-emission-time}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/event-emission-time}
 </t>
   </si>
   <si>
     <t>Le type d’évènement</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/nde-subscription)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/nde-subscription)
 </t>
   </si>
   <si>
@@ -1095,7 +1095,7 @@
     <t>RecipientEndpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/recipient-endpoint}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/recipient-endpoint}
 </t>
   </si>
   <si>
@@ -1182,7 +1182,7 @@
     <t>nde-subscription</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/nde-subscription</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/nde-subscription</t>
   </si>
   <si>
     <t>NdE_SubscriptionNdE</t>
@@ -1258,7 +1258,7 @@
     <t>SubscriptionDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/subscription-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/subscription-date}
 </t>
   </si>
   <si>
@@ -1274,7 +1274,7 @@
     <t>Start</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/start}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/start}
 </t>
   </si>
   <si>
@@ -1287,7 +1287,7 @@
     <t>Subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/subject}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/subject}
 </t>
   </si>
   <si>
@@ -1297,7 +1297,7 @@
     <t>Subscription.extension:Declarant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/declarant}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/declarant}
 </t>
   </si>
   <si>
@@ -1310,7 +1310,7 @@
     <t>Subscriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/subscriber}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/subscriber}
 </t>
   </si>
   <si>
@@ -1477,7 +1477,7 @@
     <t>recipient-endpoint</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/recipient-endpoint</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/recipient-endpoint</t>
   </si>
   <si>
     <t>NdE_RecipientEndpoint</t>
@@ -1489,7 +1489,7 @@
     <t>start</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/start</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/start</t>
   </si>
   <si>
     <t>NdE_Start</t>
@@ -1498,7 +1498,7 @@
     <t>subject</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/subject</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/subject</t>
   </si>
   <si>
     <t>NdE_Subject</t>
@@ -1511,7 +1511,7 @@
     <t>subscriber</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/subscriber</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/subscriber</t>
   </si>
   <si>
     <t>NdE_Subscriber</t>
@@ -1524,7 +1524,7 @@
     <t>subscription-date</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/subscription-date</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/subscription-date</t>
   </si>
   <si>
     <t>NdE_SubscriptionDate</t>

--- a/ajout-RC/ig/all-profiles.xlsx
+++ b/ajout-RC/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T15:19:42+00:00</t>
+    <t>2026-01-16T10:55:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/all-profiles.xlsx
+++ b/ajout-RC/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T10:55:18+00:00</t>
+    <t>2026-01-21T09:17:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/all-profiles.xlsx
+++ b/ajout-RC/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T09:17:46+00:00</t>
+    <t>2026-01-23T10:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/all-profiles.xlsx
+++ b/ajout-RC/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T10:31:33+00:00</t>
+    <t>2026-01-30T14:49:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
